--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Unity\Escape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68018511-C72F-4983-A612-9A6CE67F4BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4F5837-0632-46AD-B012-DC985F0AC963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6B2C2D71-2EE7-4982-B04C-DACF7964955D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6B2C2D71-2EE7-4982-B04C-DACF7964955D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Year</t>
   </si>
@@ -84,23 +84,59 @@
     <t>Epilogue: Evidence</t>
   </si>
   <si>
-    <t>Printed Document (?)</t>
-  </si>
-  <si>
-    <t>Database version 2017</t>
-  </si>
-  <si>
-    <t>Database Diagram (?)</t>
-  </si>
-  <si>
     <t>Hidden year</t>
+  </si>
+  <si>
+    <t>Printed Braille Puzzle</t>
+  </si>
+  <si>
+    <t>Hidden word</t>
+  </si>
+  <si>
+    <t>Document title</t>
+  </si>
+  <si>
+    <t>In solution</t>
+  </si>
+  <si>
+    <t>Puzzle format</t>
+  </si>
+  <si>
+    <t>Menioned in interface</t>
+  </si>
+  <si>
+    <t>In epilogue</t>
+  </si>
+  <si>
+    <t>In prologue</t>
+  </si>
+  <si>
+    <t>Password contains 18</t>
+  </si>
+  <si>
+    <t>Date of release</t>
+  </si>
+  <si>
+    <t>Last updated 2017</t>
+  </si>
+  <si>
+    <t>Program version 2.0.19</t>
+  </si>
+  <si>
+    <t>Resilience brand lock</t>
+  </si>
+  <si>
+    <t>Model R-K20-20</t>
+  </si>
+  <si>
+    <t>Database Diagram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,33 +144,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -144,13 +160,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,37 +177,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCF42B1-7867-49A5-A485-86DAD34715CF}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,43 +532,50 @@
     <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="23.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="10" customWidth="1"/>
-    <col min="5" max="6" width="11.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" style="7" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2014</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2015</v>
@@ -569,16 +583,19 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A9" si="0">A3+1</f>
         <v>2016</v>
@@ -586,16 +603,19 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -603,16 +623,19 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -620,14 +643,19 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -635,12 +663,17 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -648,14 +681,19 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -663,12 +701,17 @@
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Unity\Escape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4F5837-0632-46AD-B012-DC985F0AC963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7CB721-3856-4B8A-A7C3-00EE411A3482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6B2C2D71-2EE7-4982-B04C-DACF7964955D}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6B2C2D71-2EE7-4982-B04C-DACF7964955D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,20 +126,27 @@
     <t>Resilience brand lock</t>
   </si>
   <si>
-    <t>Model R-K20-20</t>
-  </si>
-  <si>
     <t>Database Diagram</t>
+  </si>
+  <si>
+    <t>Model iA-D20[20]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,13 +205,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCF42B1-7867-49A5-A485-86DAD34715CF}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +556,7 @@
     <col min="6" max="7" width="11.44140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -553,29 +572,29 @@
       <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2014</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2015</v>
@@ -586,16 +605,16 @@
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A9" si="0">A3+1</f>
         <v>2016</v>
@@ -606,16 +625,16 @@
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -623,19 +642,19 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -643,19 +662,19 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -663,17 +682,17 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -684,16 +703,16 @@
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -701,22 +720,53 @@
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Unity\Escape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7CB721-3856-4B8A-A7C3-00EE411A3482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52963920-6583-4136-8553-B00DCC1DA1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6B2C2D71-2EE7-4982-B04C-DACF7964955D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B2C2D71-2EE7-4982-B04C-DACF7964955D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Year</t>
   </si>
@@ -99,9 +99,6 @@
     <t>In solution</t>
   </si>
   <si>
-    <t>Puzzle format</t>
-  </si>
-  <si>
     <t>Menioned in interface</t>
   </si>
   <si>
@@ -111,15 +108,9 @@
     <t>In prologue</t>
   </si>
   <si>
-    <t>Password contains 18</t>
-  </si>
-  <si>
     <t>Date of release</t>
   </si>
   <si>
-    <t>Last updated 2017</t>
-  </si>
-  <si>
     <t>Program version 2.0.19</t>
   </si>
   <si>
@@ -130,6 +121,12 @@
   </si>
   <si>
     <t>Model iA-D20[20]</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Mentioned in puzzle</t>
   </si>
 </sst>
 </file>
@@ -205,9 +202,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -224,6 +218,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,7 +540,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,10 +582,10 @@
       <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="4"/>
@@ -605,10 +602,10 @@
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4"/>
@@ -625,10 +622,10 @@
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="4"/>
@@ -642,14 +639,14 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>30</v>
+      <c r="E5" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -662,14 +659,14 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>28</v>
+      <c r="D6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -682,12 +679,12 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -703,11 +700,11 @@
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>34</v>
+      <c r="D8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -720,14 +717,14 @@
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>29</v>
+      <c r="D9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -752,11 +749,11 @@
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Unity\Escape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52963920-6583-4136-8553-B00DCC1DA1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1544D20F-8394-44A6-B8FE-F410286FB207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B2C2D71-2EE7-4982-B04C-DACF7964955D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6B2C2D71-2EE7-4982-B04C-DACF7964955D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>Resilience brand lock</t>
   </si>
   <si>
-    <t>Database Diagram</t>
-  </si>
-  <si>
     <t>Model iA-D20[20]</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Mentioned in puzzle</t>
+  </si>
+  <si>
+    <t>Logic puzzle</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,16 +208,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -539,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCF42B1-7867-49A5-A485-86DAD34715CF}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,7 +602,7 @@
       <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4"/>
@@ -625,7 +622,7 @@
       <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="4"/>
@@ -640,13 +637,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="E5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -659,14 +656,14 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -679,11 +676,11 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="4"/>
@@ -700,11 +697,11 @@
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>31</v>
+      <c r="E8" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -717,13 +714,13 @@
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="4"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Unity\Escape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1544D20F-8394-44A6-B8FE-F410286FB207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915D8432-78A2-4124-AC90-0EFF2C1650BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6B2C2D71-2EE7-4982-B04C-DACF7964955D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Year</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Logic puzzle</t>
+  </si>
+  <si>
+    <t>©</t>
+  </si>
+  <si>
+    <t>Printer logo</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,9 +212,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -537,7 +540,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,13 +639,13 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="4"/>
@@ -656,14 +659,14 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>31</v>
+      <c r="D6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -676,7 +679,7 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
@@ -714,13 +717,13 @@
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="4"/>
@@ -732,6 +735,9 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
